--- a/tests/testthat/examples.xlsx
+++ b/tests/testthat/examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="11370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="153">
   <si>
     <t>normal</t>
   </si>
@@ -715,6 +715,12 @@
   </si>
   <si>
     <t>Named local formula</t>
+  </si>
+  <si>
+    <t>comment on a blank cell</t>
+  </si>
+  <si>
+    <t>blah</t>
   </si>
 </sst>
 </file>
@@ -1485,11 +1491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110319104"/>
-        <c:axId val="110320640"/>
+        <c:axId val="127694336"/>
+        <c:axId val="127706624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110319104"/>
+        <c:axId val="127694336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110320640"/>
+        <c:crossAx val="127706624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1506,7 +1512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110320640"/>
+        <c:axId val="127706624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110319104"/>
+        <c:crossAx val="127694336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1882,9 +1888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2790,9 +2798,9 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" t="str">
         <f>E09904.2!A1</f>
-        <v>0</v>
+        <v>blah</v>
       </c>
       <c r="B126" t="s">
         <v>147</v>
@@ -2834,6 +2842,11 @@
       </c>
       <c r="B131" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2908,7 +2921,7 @@
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2933,10 +2946,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>